--- a/output2.xlsx
+++ b/output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,14 +635,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>the consumer protection objective; or</t>
+          <t>The Act also provides that the FCA may use its general rule-making power to make product intervention rules prohibiting authorised persons from, among other things, entering into specified agreements (section 137D of the Act). These rules may be made to advance:</t>
         </is>
       </c>
     </row>
@@ -667,12 +663,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>the competition objective; or</t>
+          <t>the consumer protection objective; or</t>
         </is>
       </c>
     </row>
@@ -697,12 +693,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>the market integrity objective.</t>
+          <t>the competition objective; or</t>
         </is>
       </c>
     </row>
@@ -712,7 +708,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROD 2.2.3</t>
+          <t>PROD 2.2.2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -727,12 +723,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>entering into specified agreements with any person or specified person (specified person means a person who meets the description specified by FCArules);</t>
+          <t>the market integrity objective.</t>
         </is>
       </c>
     </row>
@@ -755,14 +751,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>entering into specified agreements with any person or specified person unless requirements specified in the rules have been satisfied;</t>
+          <t>Section 137D(2) of the Act sets out that the FCA may prohibit authorised persons from:</t>
         </is>
       </c>
     </row>
@@ -787,12 +779,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>doing anything that would or might result in the entering into of specified agreements by persons or specified persons, or the holding by them of a beneficial or other kind of economic interest in specified agreements; and</t>
+          <t>entering into specified agreements with any person or specified person (specified person means a person who meets the description specified by FCArules);</t>
         </is>
       </c>
     </row>
@@ -817,12 +809,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>doing anything within paragraph (3) unless requirements specified in the rules have been satisfied.</t>
+          <t>entering into specified agreements with any person or specified person unless requirements specified in the rules have been satisfied;</t>
         </is>
       </c>
     </row>
@@ -832,7 +824,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD 2.2.4</t>
+          <t>PROD 2.2.3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -845,10 +837,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Section 137D of the Act makes it clear that a range of options would be available to us in making rules prohibiting authorised persons from entering into specified agreements.</t>
+          <t>doing anything that would or might result in the entering into of specified agreements by persons or specified persons, or the holding by them of a beneficial or other kind of economic interest in specified agreements; and</t>
         </is>
       </c>
     </row>
@@ -858,7 +854,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD 2.2.5</t>
+          <t>PROD 2.2.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -871,10 +867,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>The extent of the rules which are made will generally depend on the type of intervention deemed necessary to address the issues identified, having regard to whether the intervention would be a proportionate response to the perceived risk to consumers, competition issues or market integrity issues.</t>
+          <t>doing anything within paragraph (3) unless requirements specified in the rules have been satisfied.</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROD 2.2.6</t>
+          <t>PROD 2.2.4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -897,14 +897,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>requiring certain product features to be included, excluded or changed; or</t>
+          <t>Section 137D of the Act makes it clear that a range of options would be available to us in making rules prohibiting authorised persons from entering into specified agreements.</t>
         </is>
       </c>
     </row>
@@ -914,7 +910,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROD 2.2.6</t>
+          <t>PROD 2.2.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,14 +923,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>requiring amendments to promotional materials; or</t>
+          <t>The extent of the rules which are made will generally depend on the type of intervention deemed necessary to address the issues identified, having regard to whether the intervention would be a proportionate response to the perceived risk to consumers, competition issues or market integrity issues.</t>
         </is>
       </c>
     </row>
@@ -957,14 +949,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>the imposition of restrictions on sales or marketing of the product; or</t>
+          <t>Rules may include:</t>
         </is>
       </c>
     </row>
@@ -989,12 +977,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>in more serious cases, a ban on sales or marketing of a product in relation to all or some types of client.</t>
+          <t>requiring certain product features to be included, excluded or changed; or</t>
         </is>
       </c>
     </row>
@@ -1004,7 +992,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROD 2.2.7</t>
+          <t>PROD 2.2.6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1017,10 +1005,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Where the product is provided by a business outside of the UK, rules may be made targeting regulated activities by authorised persons in the UK that would lead to a specified agreement being formed.</t>
+          <t>requiring amendments to promotional materials; or</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1022,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROD 2.2.7</t>
+          <t>PROD 2.2.6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1043,10 +1035,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[Note: see sections 137D(2)(c) and (d) of the Act]</t>
+          <t>the imposition of restrictions on sales or marketing of the product; or</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1052,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROD 2.3.1</t>
+          <t>PROD 2.2.6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1071,12 +1067,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>provide for a relevant agreement or obligation to be unenforceable against any person or specified person;</t>
+          <t>in more serious cases, a ban on sales or marketing of a product in relation to all or some types of client.</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1082,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROD 2.3.1</t>
+          <t>PROD 2.2.7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1099,14 +1095,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">provide for the recovery of any money or other property paid or transferred under a relevant agreement or obligation by any person or specified person; and </t>
+          <t>Where the product is provided by a business outside of the UK, rules may be made targeting regulated activities by authorised persons in the UK that would lead to a specified agreement being formed.</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1108,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROD 2.3.1</t>
+          <t>PROD 2.2.7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1129,14 +1121,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>provide for the payment of compensation for any loss sustained by any person or specified person as a result of paying or transferring any money or other property under a relevant agreement or obligation.</t>
+          <t>[Note: see sections 137D(2)(c) and (d) of the Act]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1134,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROD 2.3.2</t>
+          <t>PROD 2.3.1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1162,7 +1150,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Where a rule provides for a relevant agreement or obligation to be unenforceable, the relevant agreement or obligation would only be unenforceable if the sale of the product was made after the introduction of the rules and there was a contravention of those rules. Clients with products bought after the introduction of rules incorporating unenforceability provisions would generally need to seek redress through the usual channels of complaints to the firm and to the Financial Ombudsman Service, or legal action against the firm.</t>
+          <t>1In relation to agreements entered into in breach of product intervention rules, section 137D(7) sets out that the rules may:</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1160,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROD 2.3.3</t>
+          <t>PROD 2.3.1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1185,10 +1173,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Arrangements made before the introduction of the rules would not be affected by the unenforceability and compensation provisions. Clients holding contracts made before these rules were in place would still be able to seek redress through the usual channels of complaints to the firm and to the Financial Ombudsman Service or legal action against the relevant firm. These clients would need to establish their claim to redress in the usual way, for example by demonstrating that the advice they received was unsuitable, or that they bought the product after receiving a misleading financial promotion.</t>
+          <t>provide for a relevant agreement or obligation to be unenforceable against any person or specified person;</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1190,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROD 2.4.1</t>
+          <t>PROD 2.3.1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1211,10 +1203,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1Normally the FCA must consult the public before making any rules. However, the Act allows a general exemption in section 138L where the FCA considers that the delay involved in complying with the requirement to consult would be prejudicial to the interests of consumers.</t>
+          <t>provide for the recovery of any money or other property paid or transferred under a relevant agreement or obligation by any person or specified person; and</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1220,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROD 2.4.2</t>
+          <t>PROD 2.3.1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1239,12 +1235,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>the consumer protection objective, or</t>
+          <t>provide for the payment of compensation for any loss sustained by any person or specified person as a result of paying or transferring any money or other property under a relevant agreement or obligation.</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROD 2.4.2</t>
+          <t>PROD 2.3.2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1267,14 +1263,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>the competition objective, or</t>
+          <t>Where a rule provides for a relevant agreement or obligation to be unenforceable, the relevant agreement or obligation would only be unenforceable if the sale of the product was made after the introduction of the rules and there was a contravention of those rules. Clients with products bought after the introduction of rules incorporating unenforceability provisions would generally need to seek redress through the usual channels of complaints to the firm and to the Financial Ombudsman Service, or legal action against the firm.</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1276,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROD 2.4.2</t>
+          <t>PROD 2.3.3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1297,14 +1289,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>the market integrity objective.</t>
+          <t>Arrangements made before the introduction of the rules would not be affected by the unenforceability and compensation provisions. Clients holding contracts made before these rules were in place would still be able to seek redress through the usual channels of complaints to the firm and to the Financial Ombudsman Service or legal action against the relevant firm. These clients would need to establish their claim to redress in the usual way, for example by demonstrating that the advice they received was unsuitable, or that they bought the product after receiving a misleading financial promotion.</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1302,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROD 2.4.3</t>
+          <t>PROD 2.4.1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1330,7 +1318,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>The FCA’s discretion to act under section 138M is therefore wider than under section 138L.</t>
+          <t>1Normally the FCA must consult the public before making any rules. However, the Act allows a general exemption in section 138L where the FCA considers that the delay involved in complying with the requirement to consult would be prejudicial to the interests of consumers.</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1328,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROD 2.4.4</t>
+          <t>PROD 2.4.2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1356,7 +1344,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Decisions to make any rules, including temporary product intervention rules, will be taken by the FCA Board. In doing so, the FCA Board will have regard to all the available, relevant evidence, as well as the impact of the measure to be introduced by the rule.</t>
+          <t>There is also a specific exemption to the consultation requirement in relation to making temporary product intervention rules (section 138M of the Act). The FCA may make temporary product intervention rules without consultation if it considers that it is necessary or expedient not to comply with such a requirement to advance:</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1354,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROD 2.4.5</t>
+          <t>PROD 2.4.2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1379,10 +1367,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>The FCA Board will consider whether the evidence is sufficient to support the proposed measure and whether the measure is a proportionate response to the issue identified.</t>
+          <t>the consumer protection objective, or</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1384,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROD 2.4.6</t>
+          <t>PROD 2.4.2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1405,10 +1397,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>In publishing temporary product intervention rules the FCA will also publish the rationale for these rules.</t>
+          <t>the competition objective, or</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1414,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROD 2.5.1</t>
+          <t>PROD 2.4.2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1431,10 +1427,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1In general terms the FCA will consider a product intervention rule where we identify a risk of consumer detriment, a threat to market integrity or ineffective competition arising from a particular product, type of product, or practices associated with a particular product or type of product.</t>
+          <t>the market integrity objective.</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROD 2.5.2</t>
+          <t>PROD 2.4.3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1460,7 +1460,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>In deciding whether the rule should be made as a temporary product intervention rule, the FCA’s main consideration will generally be whether prompt action is deemed necessary in seeking to reduce or prevent consumer detriment or a threat to market integrity or ineffective competition arising from that product, type of product or practices.</t>
+          <t>The FCA’s discretion to act under section 138M is therefore wider than under section 138L.</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROD 2.6.1</t>
+          <t>PROD 2.4.4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1486,7 +1486,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1Together with the considerations in PROD 2.5, when making temporary or permanent product intervention rules, the FCA will have regard to the regulatory principles set out in section 3B of the Act, (see PROD 2.9).</t>
+          <t>Decisions to make any rules, including temporary product intervention rules, will be taken by the FCA Board. In doing so, the FCA Board will have regard to all the available, relevant evidence, as well as the impact of the measure to be introduced by the rule.</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROD 2.6.2</t>
+          <t>PROD 2.4.5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1506,17 +1506,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>an appropriate and effective means of addressing actual or potential consumer detriment associated with a particular product or group of products;</t>
+          <t>The FCA Board will consider whether the evidence is sufficient to support the proposed measure and whether the measure is a proportionate response to the issue identified.</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1522,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROD 2.6.2</t>
+          <t>PROD 2.4.6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1536,17 +1532,13 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>a proportionate and deliverable means of addressing actual or potential detriment;</t>
+          <t>In publishing temporary product intervention rules the FCA will also publish the rationale for these rules.</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1548,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROD 2.6.2</t>
+          <t>PROD 2.5.1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1566,17 +1558,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>compatible with the FCA’s duty to promote effective competition in the interests of consumers (section 1B(4) of the Act);</t>
+          <t>1In general terms the FCA will consider a product intervention rule where we identify a risk of consumer detriment, a threat to market integrity or ineffective competition arising from a particular product, type of product, or practices associated with a particular product or type of product.</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1574,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROD 2.6.2</t>
+          <t>PROD 2.5.2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1596,17 +1584,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>supported by sufficient and appropriate evidence;</t>
+          <t>In deciding whether the rule should be made as a temporary product intervention rule, the FCA’s main consideration will generally be whether prompt action is deemed necessary in seeking to reduce or prevent consumer detriment or a threat to market integrity or ineffective competition arising from that product, type of product or practices.</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1600,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROD 2.6.2</t>
+          <t>PROD 2.6.1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1626,17 +1610,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(5) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">transparent in their aim and operation; </t>
+          <t>1Together with the considerations in PROD 2.5, when making temporary or permanent product intervention rules, the FCA will have regard to the regulatory principles set out in section 3B of the Act, (see PROD 2.9).</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1639,10 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(6) </t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>likely to be beneficial for clients when taken as a whole; and</t>
+          <t>The FCA will also take into account general considerations that include, but are not limited to, whether the proposed rules are:</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1667,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">(7) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>compatible (where relevant) with other applicable law.2</t>
+          <t>an appropriate and effective means of addressing actual or potential consumer detriment associated with a particular product or group of products;</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1682,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROD 2.6.3</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1716,17 +1692,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>eliminate discrimination, harassment, victimisation and any other conduct that is prohibited by or under the Equality Act 2010;</t>
+          <t>a proportionate and deliverable means of addressing actual or potential detriment;</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1712,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROD 2.6.3</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1746,17 +1722,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>advance equality of opportunity between persons who share a relevant protected characteristic and persons who do not share it; and</t>
+          <t>compatible with the FCA’s duty to promote effective competition in the interests of consumers (section 1B(4) of the Act);</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1742,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROD 2.6.3</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1776,17 +1752,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>foster good relations between persons who share a relevant protected characteristic and persons who do not share it;</t>
+          <t>supported by sufficient and appropriate evidence;</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1772,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROD 2.7.1</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1806,17 +1782,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>The potential scale of detriment in the market. Issues involving products with a large or potentially large client base are more likely to require product intervention.</t>
+          <t>transparent in their aim and operation;</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1802,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROD 2.7.1</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1836,17 +1812,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>The potential scale of detriment to individual clients. Issues that may lead to high detriment for individual clients are more likely to require product intervention.</t>
+          <t>likely to be beneficial for clients when taken as a whole; and</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1832,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROD 2.7.1</t>
+          <t>PROD 2.6.2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1866,17 +1842,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>The social context. Issues that may lead to detriment for particular groups of clients (such as, in particular, vulnerable client groups) are more likely to require product intervention.</t>
+          <t>compatible (where relevant) with other applicable law.2</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1862,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROD 2.7.1</t>
+          <t>PROD 2.6.3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1899,14 +1875,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>The market context. Market mechanisms such as information disclosure and competition do not always work to protect consumers.</t>
+          <t>In accordance with the Equality Act 2010, the FCA will have due regard to the need to:</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1888,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROD 2.7.1</t>
+          <t>PROD 2.6.3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1931,12 +1903,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Possible unintended consequences. Whether the use of product intervention rules or the timing of the intervention would in itself create undue risk of further consumer detriment, including harm to existing clients and in the market (although this will not necessarily comprise a full cost benefit analysis).</t>
+          <t>eliminate discrimination, harassment, victimisation and any other conduct that is prohibited by or under the Equality Act 2010;</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1918,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROD 2.8.1</t>
+          <t>PROD 2.6.3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1959,10 +1931,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1When making a temporary or permanent product intervention rule, the FCA will seek to promote effective competition in the interests of consumers where doing so is compatible with its consumer protection objective or integrity objective.</t>
+          <t>advance equality of opportunity between persons who share a relevant protected characteristic and persons who do not share it; and</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1948,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROD 2.8.2</t>
+          <t>PROD 2.6.3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1985,10 +1961,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>In accordance with section 1E of the Act the FCA also has a competition objective and may make rules, including temporary product intervention rules, specifically to advance competition.</t>
+          <t>foster good relations between persons who share a relevant protected characteristic and persons who do not share it;</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1978,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROD 2.8.3</t>
+          <t>PROD 2.6.3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2011,14 +1991,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Whether there is reasonable scope for the rules under consideration to promote effective competition in the interests of consumers, for instance by addressing consumer behaviours that impair their ability to benefit from competition, by reducing information asymmetries or by correcting misaligned incentives.</t>
+          <t>when making temporary or permanent product intervention rules.</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2004,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROD 2.8.3</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2041,14 +2017,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Whether the rule under consideration may have a negative impact on competition factors such as product innovation and barriers to entry for new market participants.</t>
+          <t>1When the FCA is considering whether to make temporary or permanent product intervention rules in response to an identified issue with a product, the following factors may be taken into account:</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2030,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROD 2.8.3</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2073,12 +2045,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Whether any negative impact on competition factors is proportionate, having regard to the aims of the rule under consideration.</t>
+          <t>The potential scale of detriment in the market. Issues involving products with a large or potentially large client base are more likely to require product intervention.</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2060,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROD 2.8.3</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2103,12 +2075,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Whether alternative solutions may deliver the same intended outcome while having a more positive impact on competition.</t>
+          <t>The potential scale of detriment to individual clients. Issues that may lead to high detriment for individual clients are more likely to require product intervention.</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2090,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROD 2.8.3</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2133,12 +2105,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>The overall effect of a proposed rule upon the operation of effective competition in the market for financial services, having regard to the interests of consumers.</t>
+          <t>The social context. Issues that may lead to detriment for particular groups of clients (such as, in particular, vulnerable client groups) are more likely to require product intervention.</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2120,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROD 2.9.1</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2161,10 +2133,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1The FCA will have regard to the regulatory principles set out in section 3B of the Act when making temporary product intervention rules.</t>
+          <t>The market context. Market mechanisms such as information disclosure and competition do not always work to protect consumers.</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2150,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROD 2.9.2</t>
+          <t>PROD 2.7.1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2187,10 +2163,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>As part of the FCA’s consideration of issues including the desirability of facilitating innovation, we will consider the potential deterrent effect on entry to the market and innovation when making temporary product intervention rules against the potential for reducing anticipated consumer detriment.</t>
+          <t>Possible unintended consequences. Whether the use of product intervention rules or the timing of the intervention would in itself create undue risk of further consumer detriment, including harm to existing clients and in the market (although this will not necessarily comprise a full cost benefit analysis).</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2180,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROD 2.10.1</t>
+          <t>PROD 2.8.1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2216,7 +2196,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1Once initial proposals have been discussed, a paper will be prepared at working group level for a committee (the Committee) with appropriate authority to propose temporary product intervention rules to the FCA Board.</t>
+          <t>1When making a temporary or permanent product intervention rule, the FCA will seek to promote effective competition in the interests of consumers where doing so is compatible with its consumer protection objective or integrity objective.</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2206,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROD 2.10.2</t>
+          <t>PROD 2.8.2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2242,7 +2222,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>The Committee will either endorse the proposals and recommend that they are taken to the Board, or suggest rethinking or amending the proposals and coming back at a later date. A decision may be taken to use a different regulatory tool, or not to proceed.</t>
+          <t>In accordance with section 1E of the Act the FCA also has a competition objective and may make rules, including temporary product intervention rules, specifically to advance competition.</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2232,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROD 2.10.3</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2268,7 +2248,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>If the Committee decides that the proposals should go to the Board, the paper will be taken to the next available scheduled Board meeting, unless the matter is of great importance or there is an emergency, in which case the Board may convene specifically to consider the issue.</t>
+          <t>Relevant competition-related considerations for the FCA in the context of temporary or permanent product intervention rules are likely to include:</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2258,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROD 2.10.4</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2291,10 +2271,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>If the Board makes a decision to act on the policy proposals the FCA will publish the temporary product intervention rules on its website and take the necessary follow-up actions.</t>
+          <t>Whether there is reasonable scope for the rules under consideration to promote effective competition in the interests of consumers, for instance by addressing consumer behaviours that impair their ability to benefit from competition, by reducing information asymmetries or by correcting misaligned incentives.</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2288,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROD 2.11.1</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2317,10 +2301,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1The FCA will generally seek the views of the Financial Services Practitioner Panel, the Smaller Businesses Practitioner Panel and the Financial Services Consumer Panel during the process for making temporary product intervention rules if there is sufficient time to do so.</t>
+          <t>Whether the rule under consideration may have a negative impact on competition factors such as product innovation and barriers to entry for new market participants.</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2318,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROD 2.12.1</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2343,10 +2331,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1Before any proposed product intervention rules are made (whether temporary or not) the FCA will consult the PRA.</t>
+          <t>Whether any negative impact on competition factors is proportionate, having regard to the aims of the rule under consideration.</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2348,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROD 2.13.1</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2369,10 +2361,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1Before making a temporary product intervention rule, the Committee will consider how affected firms and clients are to be informed of the rule in good time.</t>
+          <t>Whether alternative solutions may deliver the same intended outcome while having a more positive impact on competition.</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2378,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROD 2.13.2</t>
+          <t>PROD 2.8.3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2395,10 +2391,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>The FCA will publish a statement on its website explaining why it is introducing the rule. The FCA may choose to invite feedback, but this will not amount to a consultation exercise.</t>
+          <t>The overall effect of a proposed rule upon the operation of effective competition in the market for financial services, having regard to the interests of consumers.</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROD 2.13.3</t>
+          <t>PROD 2.9.1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2424,7 +2424,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>The FCA may choose to review a temporary product intervention rule during the term for which the rule is in force. Such a review will generally depend on the perceived risk the rule seeks to mitigate. These reviews may be informed by market monitoring and feedback from stakeholders, including product manufacturers, distributors and clients.</t>
+          <t>1The FCA will have regard to the regulatory principles set out in section 3B of the Act when making temporary product intervention rules.</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROD 2.13.4</t>
+          <t>PROD 2.9.2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2450,7 +2450,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Where the FCA perceives potential uncertainty about how the rule operates, it may consider publishing guidance.</t>
+          <t>As part of the FCA’s consideration of issues including the desirability of facilitating innovation, we will consider the potential deterrent effect on entry to the market and innovation when making temporary product intervention rules against the potential for reducing anticipated consumer detriment.</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROD 2.13.5</t>
+          <t>PROD 2.10.1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2473,14 +2473,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>there have been any breaches of the rule; or</t>
+          <t>1Once initial proposals have been discussed, a paper will be prepared at working group level for a committee (the Committee) with appropriate authority to propose temporary product intervention rules to the FCA Board.</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2486,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROD 2.13.5</t>
+          <t>PROD 2.10.2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2503,14 +2499,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>there are any unintended consequences, such as an impact on products that were not intended to be caught by the rule; or</t>
+          <t>The Committee will either endorse the proposals and recommend that they are taken to the Board, or suggest rethinking or amending the proposals and coming back at a later date. A decision may be taken to use a different regulatory tool, or not to proceed.</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2512,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROD 2.13.5</t>
+          <t>PROD 2.10.3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2533,14 +2525,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>there is evidence suggesting firms are avoiding or seeking to avoid the rule rather than complying with it, for instance where new products enter the market or new features are added to existing products that expose clients to the same or similar potential detriment; or,</t>
+          <t>If the Committee decides that the proposals should go to the Board, the paper will be taken to the next available scheduled Board meeting, unless the matter is of great importance or there is an emergency, in which case the Board may convene specifically to consider the issue.</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2538,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROD 2.13.5</t>
+          <t>PROD 2.10.4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2563,14 +2551,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>new evidence demonstrates that the rule is not necessary or detriment is unlikely.</t>
+          <t>If the Board makes a decision to act on the policy proposals the FCA will publish the temporary product intervention rules on its website and take the necessary follow-up actions.</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2564,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROD 2.13.6</t>
+          <t>PROD 2.11.1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2593,14 +2577,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>revoke a temporary product intervention rule; or</t>
+          <t>1The FCA will generally seek the views of the Financial Services Practitioner Panel, the Smaller Businesses Practitioner Panel and the Financial Services Consumer Panel during the process for making temporary product intervention rules if there is sufficient time to do so.</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2590,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROD 2.13.6</t>
+          <t>PROD 2.12.1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2623,14 +2603,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>amend the rule, for example where a rule specifies certain criteria under which the sale of a product may continue, change these criteria.</t>
+          <t>1Before any proposed product intervention rules are made (whether temporary or not) the FCA will consult the PRA.</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2616,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROD 2.13.7</t>
+          <t>PROD 2.13.1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2656,7 +2632,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Subsequent changes to a temporary product intervention rule will be communicated by issuing a new statement containing the revised rule and the rationale for the changes. Such changes will not extend the lifespan of the temporary product intervention rule.</t>
+          <t>1Before making a temporary product intervention rule, the Committee will consider how affected firms and clients are to be informed of the rule in good time.</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2642,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROD 2.13.8</t>
+          <t>PROD 2.13.2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2682,7 +2658,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>However, the FCA may consult on a new rule to replace the temporary product intervention rule from the date on which the temporary product intervention rule ceases to have effect. This exercise would be subject to the FCA’s standard rule-making procedure including market failure analysis, cost benefit analysis and consultation to which all stakeholders, including manufacturers, distributors and clients would be invited to reply.</t>
+          <t>The FCA will publish a statement on its website explaining why it is introducing the rule. The FCA may choose to invite feedback, but this will not amount to a consultation exercise.</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2668,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROD 2.14.1</t>
+          <t>PROD 2.13.3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2708,7 +2684,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1When making temporary product intervention rules the FCA will state the duration of the rule and the date from which it will be effective. Temporary product intervention rules will have a maximum duration of 12 months from when the rule is made, but the FCA may decide on a shorter duration for a rule.</t>
+          <t>The FCA may choose to review a temporary product intervention rule during the term for which the rule is in force. Such a review will generally depend on the perceived risk the rule seeks to mitigate. These reviews may be informed by market monitoring and feedback from stakeholders, including product manufacturers, distributors and clients.</t>
         </is>
       </c>
     </row>
@@ -2718,7 +2694,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROD 2.14.2</t>
+          <t>PROD 2.13.4</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2734,7 +2710,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>The FCA may review or revoke temporary product intervention rules at any time before the end of the period for which they apply.</t>
+          <t>Where the FCA perceives potential uncertainty about how the rule operates, it may consider publishing guidance.</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2720,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROD 2.14.3</t>
+          <t>PROD 2.13.5</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2757,14 +2733,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>new rules are introduced on a permanent basis following a consultation exercise; or</t>
+          <t>Reviews are likely to consider whether a rule is functioning as intended, including whether:</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2746,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROD 2.14.3</t>
+          <t>PROD 2.13.5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2789,12 +2761,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>industry initiatives are developed that specify sufficient minimum standards to address the sources of consumer detriment; or</t>
+          <t>there have been any breaches of the rule; or</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2776,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROD 2.14.3</t>
+          <t>PROD 2.13.5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2819,12 +2791,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>further evidence is submitted that demonstrates that consumer detriment will not occur; or</t>
+          <t>there are any unintended consequences, such as an impact on products that were not intended to be caught by the rule; or</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2806,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROD 2.14.3</t>
+          <t>PROD 2.13.5</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2849,12 +2821,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>demand for, or supply of, the relevant product disappears and is deemed unlikely to return; or</t>
+          <t>there is evidence suggesting firms are avoiding or seeking to avoid the rule rather than complying with it, for instance where new products enter the market or new features are added to existing products that expose clients to the same or similar potential detriment; or,</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2836,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROD 2.14.3</t>
+          <t>PROD 2.13.5</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2879,12 +2851,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>the FCA identifies unforeseen negative effects of the rule which outweigh any positive impact upon consumer protection.</t>
+          <t>new evidence demonstrates that the rule is not necessary or detriment is unlikely.</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2866,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROD 2.14.4</t>
+          <t>PROD 2.13.6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2909,6 +2881,372 @@
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
+        <is>
+          <t>As a result of these reviews, where necessary, the FCA may:</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PROD 2.13.6</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>revoke a temporary product intervention rule; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PROD 2.13.6</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>amend the rule, for example where a rule specifies certain criteria under which the sale of a product may continue, change these criteria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PROD 2.13.7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Subsequent changes to a temporary product intervention rule will be communicated by issuing a new statement containing the revised rule and the rationale for the changes. Such changes will not extend the lifespan of the temporary product intervention rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PROD 2.13.8</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>However, the FCA may consult on a new rule to replace the temporary product intervention rule from the date on which the temporary product intervention rule ceases to have effect. This exercise would be subject to the FCA’s standard rule-making procedure including market failure analysis, cost benefit analysis and consultation to which all stakeholders, including manufacturers, distributors and clients would be invited to reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PROD 2.14.1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1When making temporary product intervention rules the FCA will state the duration of the rule and the date from which it will be effective. Temporary product intervention rules will have a maximum duration of 12 months from when the rule is made, but the FCA may decide on a shorter duration for a rule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PROD 2.14.2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>The FCA may review or revoke temporary product intervention rules at any time before the end of the period for which they apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Rules may be revoked or amended for a number of reasons, including but not limited to:</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>new rules are introduced on a permanent basis following a consultation exercise; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>industry initiatives are developed that specify sufficient minimum standards to address the sources of consumer detriment; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>further evidence is submitted that demonstrates that consumer detriment will not occur; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>demand for, or supply of, the relevant product disappears and is deemed unlikely to return; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PROD 2.14.3</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>the FCA identifies unforeseen negative effects of the rule which outweigh any positive impact upon consumer protection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PROD 2.14.4</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>Where temporary product intervention rules have been made, the FCA may not make further temporary product intervention rules containing the same, or substantially the same, provisions within 12 months beginning on the day on which the limited duration of the initial rules ends (whether or not the rules were revoked early). This period does not apply to rules that are not temporary product intervention rules, (i.e. rules which had been made subject to consultation, whether or not of set duration).</t>
         </is>
